--- a/Informations_File.xlsx
+++ b/Informations_File.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/andrea_baietti_global_ntt/Documents/Documents/GitHub/Meraki_Create_Network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_EE1941CC463C7614B50C5EEE8BEC2EF674BAB139" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5730B46F-F95E-4B21-9848-00C0B67A5783}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_EE1941CC463C7614B50C5EEE8BEC2EF674BAB139" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDA8144-E547-4661-B2B7-9897DA1A3D43}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="773">
   <si>
     <t>serial</t>
   </si>
@@ -2348,6 +2348,15 @@
   </si>
   <si>
     <t>00100</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>via del Corso 1</t>
+  </si>
+  <si>
+    <t>via Condotti 10</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2714,15 +2723,15 @@
   <cols>
     <col min="1" max="1" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2733,22 +2742,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>767</v>
       </c>
@@ -2759,22 +2771,25 @@
         <v>755</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>768</v>
       </c>
@@ -2785,23 +2800,26 @@
         <v>756</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>766</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -5638,6 +5656,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BD9C4B1350A184C84C574120F9CECEA" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ffd8fff07b494ffa81958e02a85eb618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="462a83ca-c875-4ac3-b27a-16bd04d051cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb4ef2f27dde3d5bcf6b430089ab4b2a" ns2:_="">
     <xsd:import namespace="462a83ca-c875-4ac3-b27a-16bd04d051cc"/>
@@ -5809,15 +5836,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{251334C5-9238-4F00-B2CB-8B688778B4BC}">
   <ds:schemaRefs>
@@ -5828,6 +5846,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABB74F-1FAF-4614-95A2-E297AF19826B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF7495A-01F8-444C-B3A5-FA6287DD379A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5843,12 +5869,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABB74F-1FAF-4614-95A2-E297AF19826B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>